--- a/data/rating/client_rating_system.xlsx
+++ b/data/rating/client_rating_system.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\parma121.ca.sbrf.ru\VOL2_DFA_FR\DFA-VARM\21251117_OMEGA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasha\work\FinGigaChat\data\rating\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -32,43 +32,36 @@
     <t>key words</t>
   </si>
   <si>
-    <t xml:space="preserve"> построить , купит,приобрести,продаст,продать,тендер,разделение бизнеса,контракт</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> санкции, санкция, сво </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> авария, пожар, утечка, разлив , жертва, ранены, ранить, погиб, погибнуть</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> суд , иск , судебный процесс , разбирательство ,штраф, дефолт , банкротство , компенсация , урегулирование</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> назначить, занять пост, занять должность, занять место , покинуть пост , покинуть место, покинуть должность ,уволить ,уйти пост, уйти должность, уйти место</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> дивиденды, облигации, байбэк, buyback, листинг, ipo , spo ,акция </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> выручка, прибыль, ebitda , отчетность, рентабельность , отчет, отчитаться ,</t>
+    <t>тендер , контракт, подписать, подписывать, соглашение, поставка, поставить, расторжение, расторгать, запуск, приобрести, приобретать,  представить, представлять, сделка, сотрудничество, сотрудничать, заключить, заключать, купить, покупать, продать, продавать, реорганизация, реорганизовать, реорганизовывать, инвестировать, запускать, запустить, построить, создание, создать, создавать, разработать, разрабатывать, изобрести, изобретать, изобретение, расширение, реализовать, открыть, открывать</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> назначить, назначать, занять пост, занять должность, занять место , покинуть пост , покинуть место, покинуть должность ,уволить ,уйти пост, уйти должность, уйти место, уходить место, уходить должность, уходить пост, покидать место, покидать должность, покидать пост, отставка, кадровый перестановка</t>
+  </si>
+  <si>
+    <t>эксперт, аналитик, предсказать, прогноз, гуманитарный, рекомендовать, рынок акция, интервью, выставка, конференция, форум, премия, ярмарка, индекс, оценка, трейдер, брокер, отметить, отпраздновать, спорт, вакансия</t>
+  </si>
+  <si>
+    <t>концерт, реклама, обстрел, деревня, село, поселок, беспилотник, работодатель, версия, фестиваль, зарплата, автоавария, газифицировать, дискредитация, удар, атаковать, благотворительный, благотворительность, газификация, сводка, котельная, мошенник, дтп, матч, соревнование, победа, хоккей, футбол, клуб, сводка</t>
+  </si>
+  <si>
+    <t>санкция, sdn, суд , иск , судебный процесс , разбирательство ,штраф, дефолт , банкротство , компенсация , урегулирование, урегулировать, взыскать, взыскивать, судебный, тяжба, долг , задолженность, погасить, погашать, переговор, лицензия, арест, обвинение</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> выручка, прибыль, ebitda , отчетность, рентабельность , отчет, отчитаться , итог ,  доход , результат, нарастить, увеличить, подвести, завершить, завершать, рентабельность, сократить, сокращение, уменьшить, уменьшать, снизить, снижать, вырости, вырастать, внедрить, финансовый результат, экономический эффект</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> дивиденд, облигация, байбэк, buyback, листинг, ipo ,  spo , акционер</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -93,12 +86,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -114,9 +106,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -154,7 +146,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -226,7 +218,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -378,13 +370,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,60 +384,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>-1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>-3</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
